--- a/biology/Zoologie/Angustopila_dominikae/Angustopila_dominikae.xlsx
+++ b/biology/Zoologie/Angustopila_dominikae/Angustopila_dominikae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Angustopila dominikae est une espèce d'escargots terrestres de la famille des Hypselostomatidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Guangxi en Chine[1]. Elle se rencontre dans une grotte du karst de Jiaole dans le xian autonome yao de Bama.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Guangxi en Chine. Elle se rencontre dans une grotte du karst de Jiaole dans le xian autonome yao de Bama.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2015, il semblerait que ses membres soient les plus petits mollusques terrestres (la coquille de l'holotype mesure 0,86 mm de haut)[1]. Comme c'est le cas pour la plupart des membres du genre Angustopila, A. dominikae est une espèce troglobie, et montre un haut niveau d'endémisme.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, il semblerait que ses membres soient les plus petits mollusques terrestres (la coquille de l'holotype mesure 0,86 mm de haut). Comme c'est le cas pour la plupart des membres du genre Angustopila, A. dominikae est une espèce troglobie, et montre un haut niveau d'endémisme.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Dominika Páll-Gergely, l'épouse de Barna Páll-Gergely[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Dominika Páll-Gergely, l'épouse de Barna Páll-Gergely.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Páll-Gergely, Hunyadi, Jochum, Asami, 2015 : Seven new hypselostomatid species from China, including some of the world’s smallest land snails (Gastropoda, Pulmonata, Orthurethra). ZooKeys, no 523, p. 31-62 (texte intégral).</t>
         </is>
